--- a/document/防守RPG的版本计划/文档/主界面系统.xlsx
+++ b/document/防守RPG的版本计划/文档/主界面系统.xlsx
@@ -557,124 +557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="椭圆 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="5334000"/>
-          <a:ext cx="638175" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>625983</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="五边形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="5493639"/>
-          <a:ext cx="978408" cy="50291"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>378333</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -683,8 +575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6257925" y="5495925"/>
-          <a:ext cx="978408" cy="57150"/>
+          <a:off x="6267450" y="5629274"/>
+          <a:ext cx="2571750" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1125,16 +1017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1143,7 +1035,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="5362575"/>
+          <a:off x="7210425" y="5486400"/>
           <a:ext cx="847725" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1188,61 +1080,321 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7943850" y="5334000"/>
-          <a:ext cx="847725" cy="247650"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="等腰三角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1806134">
+          <a:off x="10525125" y="3790950"/>
+          <a:ext cx="533400" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934701" y="3733800"/>
+          <a:ext cx="1904999" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029951" y="3895725"/>
+          <a:ext cx="400050" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="椭圆 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="3905251"/>
+          <a:ext cx="409575" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12258676" y="3886201"/>
+          <a:ext cx="428624" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形标注 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353925" y="2943225"/>
+          <a:ext cx="1162050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>蓝量</a:t>
+            <a:t>物品道具快捷栏，可移出屏幕外</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1252,27 +1404,412 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形标注 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="4752975"/>
+          <a:ext cx="1162050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>技能快捷栏，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>按钮用以支持技能升级</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="加号 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410826" y="4343400"/>
+          <a:ext cx="247650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="加号 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829801" y="4581525"/>
+          <a:ext cx="247650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="加号 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458326" y="5067300"/>
+          <a:ext cx="247650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="加号 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401176" y="5638800"/>
+          <a:ext cx="247650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="等腰三角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1806134">
-          <a:off x="10534650" y="2219325"/>
-          <a:ext cx="533400" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
+        <xdr:cNvPr id="42" name="矩形标注 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="5543550"/>
+          <a:ext cx="876300" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>buff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形标注 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5743575"/>
+          <a:ext cx="876300" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>经验显示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="椭圆 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858250" y="5153025"/>
+          <a:ext cx="447675" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1305,321 +1842,54 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="矩形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10944225" y="2066925"/>
-          <a:ext cx="4143375" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="椭圆 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11039475" y="2324100"/>
-          <a:ext cx="523875" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="椭圆 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11744325" y="2314575"/>
-          <a:ext cx="523875" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="椭圆 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12515850" y="2314575"/>
-          <a:ext cx="523875" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="椭圆 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13258800" y="2286000"/>
-          <a:ext cx="523875" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="椭圆 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14077950" y="2305050"/>
-          <a:ext cx="523875" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形标注 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="4600575"/>
+          <a:ext cx="723900" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>武器带的技能</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1918,7 +2188,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
